--- a/Hier.clust.alkanes/3.ind.waxGHtraits.PVAL/traits.ORD.PVAL.xlsx
+++ b/Hier.clust.alkanes/3.ind.waxGHtraits.PVAL/traits.ORD.PVAL.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="-800" windowWidth="17440" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="traits.ORD.PVAL" localSheetId="0">Sheet1!$A$1:$F$257</definedName>
+    <definedName name="traits.ORD.PVAL" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="traits.ORD.PVAL_1" localSheetId="0">Sheet1!$B$1:$F$226</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,11 +37,24 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="traits.ORD.PVAL.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="MacintoshHD:Users:albender:GoogleDrive:Grad_school:Research:Tomatoes:Paper_drafts:d13C_CSIA:Figures:5.Hier.clust.alkanes:Hier.clust.alkanes:3.ind.waxGHtraits.PVAL:traits.ORD.PVAL.txt" space="1" consecutive="1" delimiter="_x0000_">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="40">
   <si>
     <t>trait2</t>
   </si>
@@ -57,19 +71,7 @@
     <t>anteiso_ACL</t>
   </si>
   <si>
-    <t>Sum_Alk.area</t>
-  </si>
-  <si>
-    <t>10.Sum_Alk.area</t>
-  </si>
-  <si>
-    <t>05.anteiso_ACL</t>
-  </si>
-  <si>
     <t>n33.i33</t>
-  </si>
-  <si>
-    <t>16.n33.i33</t>
   </si>
   <si>
     <t>NA</t>
@@ -78,79 +80,40 @@
     <t>Methyl_Index</t>
   </si>
   <si>
-    <t>04.Methyl_Index</t>
-  </si>
-  <si>
     <t>n31.i31</t>
-  </si>
-  <si>
-    <t>15.n31.i31</t>
   </si>
   <si>
     <t>eps13C_n.C33</t>
   </si>
   <si>
-    <t>12.eps13C_n.C33</t>
-  </si>
-  <si>
     <t>eps13C_i.C31</t>
-  </si>
-  <si>
-    <t>13.eps13C_i.C31</t>
   </si>
   <si>
     <t>pct_anteiso.alkanes</t>
   </si>
   <si>
-    <t>03.pct_anteiso.alkanes</t>
-  </si>
-  <si>
     <t>iso_ACL</t>
-  </si>
-  <si>
-    <t>07.iso_ACL</t>
   </si>
   <si>
     <t>eps13C_n.C31</t>
   </si>
   <si>
-    <t>11.eps13C_n.C31</t>
-  </si>
-  <si>
     <t>iso_CPI</t>
-  </si>
-  <si>
-    <t>08.iso_CPI</t>
   </si>
   <si>
     <t>eps13C_i.C33</t>
   </si>
   <si>
-    <t>14.eps13C_i.C33</t>
-  </si>
-  <si>
     <t>pct_iso.alkanes</t>
-  </si>
-  <si>
-    <t>02.pct_iso.alkanes</t>
   </si>
   <si>
     <t>anteiso_CPI</t>
   </si>
   <si>
-    <t>09.anteiso_CPI</t>
-  </si>
-  <si>
     <t>n.alkane_ACL</t>
   </si>
   <si>
-    <t>06.n.alkane_ACL</t>
-  </si>
-  <si>
     <t>n.alkane_CPI</t>
-  </si>
-  <si>
-    <t>01.n.alkane_CPI</t>
   </si>
   <si>
     <t>ord.trait1</t>
@@ -167,6 +130,51 @@
   <si>
     <t>less_than_05</t>
   </si>
+  <si>
+    <t>07.Methyl_Index</t>
+  </si>
+  <si>
+    <t>01.anteiso_ACL</t>
+  </si>
+  <si>
+    <t>12.eps13C_i.C31</t>
+  </si>
+  <si>
+    <t>10.eps13C_n.C31</t>
+  </si>
+  <si>
+    <t>03.iso_ACL</t>
+  </si>
+  <si>
+    <t>06.pct_anteiso.alkanes</t>
+  </si>
+  <si>
+    <t>14.n31.i31</t>
+  </si>
+  <si>
+    <t>15.n33.i33</t>
+  </si>
+  <si>
+    <t>05.pct_iso.alkanes</t>
+  </si>
+  <si>
+    <t>11.eps13C_n.C33</t>
+  </si>
+  <si>
+    <t>13.eps13C_i.C33</t>
+  </si>
+  <si>
+    <t>02.n.alkane_ACL</t>
+  </si>
+  <si>
+    <t>08.anteiso_CPI</t>
+  </si>
+  <si>
+    <t>04.n.alkane_CPI</t>
+  </si>
+  <si>
+    <t>09.iso_CPI</t>
+  </si>
 </sst>
 </file>
 
@@ -178,6 +186,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,8 +223,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -255,6 +288,18 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -266,6 +311,18 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,7 +331,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="traits.ORD.PVAL" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="traits.ORD.PVAL_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="1" sqref="A2:XFD2 B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -620,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -632,24 +689,24 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -661,21 +718,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -687,21 +744,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -713,21 +770,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -739,21 +796,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -765,21 +822,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -791,21 +848,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -817,21 +874,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -843,21 +900,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -869,21 +926,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -895,21 +952,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -921,21 +978,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -947,21 +1004,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -973,21 +1030,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -999,21 +1056,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1025,21 +1082,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1051,21 +1108,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1077,21 +1134,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1103,21 +1160,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1129,21 +1186,21 @@
         <v>2.2E-16</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,449 +1212,449 @@
         <v>2.2E-16</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1">
         <v>9.3299999999999998E-15</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0199999999999999E-13</v>
+        <v>8.8999999999999999E-14</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0199999999999999E-13</v>
+        <v>8.8999999999999999E-14</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>9.3299999999999998E-15</v>
       </c>
       <c r="F23" s="1">
-        <v>1.0199999999999999E-13</v>
+        <v>8.8999999999999999E-14</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0199999999999999E-13</v>
+        <v>8.8999999999999999E-14</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1">
         <v>2.8900000000000002E-14</v>
       </c>
       <c r="F24" s="1">
-        <v>2.8899999999999998E-13</v>
+        <v>2.5299999999999998E-13</v>
       </c>
       <c r="G24" s="1">
-        <v>2.8899999999999998E-13</v>
+        <v>2.5299999999999998E-13</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1">
         <v>2.8900000000000002E-14</v>
       </c>
       <c r="F25" s="1">
-        <v>2.8899999999999998E-13</v>
+        <v>2.5299999999999998E-13</v>
       </c>
       <c r="G25" s="1">
-        <v>2.8899999999999998E-13</v>
+        <v>2.5299999999999998E-13</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1">
         <v>5.3100000000000002E-14</v>
       </c>
       <c r="F26" s="1">
-        <v>4.9000000000000003E-13</v>
+        <v>4.2899999999999999E-13</v>
       </c>
       <c r="G26" s="1">
-        <v>4.9000000000000003E-13</v>
+        <v>4.2899999999999999E-13</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
         <v>5.3100000000000002E-14</v>
       </c>
       <c r="F27" s="1">
-        <v>4.9000000000000003E-13</v>
+        <v>4.2899999999999999E-13</v>
       </c>
       <c r="G27" s="1">
-        <v>4.9000000000000003E-13</v>
+        <v>4.2899999999999999E-13</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1">
         <v>1.07E-13</v>
       </c>
       <c r="F28" s="1">
-        <v>9.1900000000000002E-13</v>
+        <v>8.0400000000000001E-13</v>
       </c>
       <c r="G28" s="1">
-        <v>9.1900000000000002E-13</v>
+        <v>8.0400000000000001E-13</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
         <v>1.07E-13</v>
       </c>
       <c r="F29" s="1">
-        <v>9.1900000000000002E-13</v>
+        <v>8.0400000000000001E-13</v>
       </c>
       <c r="G29" s="1">
-        <v>9.1900000000000002E-13</v>
+        <v>8.0400000000000001E-13</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1">
         <v>4.7100000000000001E-13</v>
       </c>
       <c r="F30" s="1">
-        <v>3.7700000000000003E-12</v>
+        <v>3.3000000000000001E-12</v>
       </c>
       <c r="G30" s="1">
-        <v>3.7700000000000003E-12</v>
+        <v>3.3000000000000001E-12</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>4.7100000000000001E-13</v>
       </c>
       <c r="F31" s="1">
-        <v>3.7700000000000003E-12</v>
+        <v>3.3000000000000001E-12</v>
       </c>
       <c r="G31" s="1">
-        <v>3.7700000000000003E-12</v>
+        <v>3.3000000000000001E-12</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1">
         <v>5.1600000000000002E-13</v>
       </c>
       <c r="F32" s="1">
-        <v>3.8700000000000003E-12</v>
+        <v>3.3899999999999999E-12</v>
       </c>
       <c r="G32" s="1">
-        <v>3.8700000000000003E-12</v>
+        <v>3.3899999999999999E-12</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
         <v>5.1600000000000002E-13</v>
       </c>
       <c r="F33" s="1">
-        <v>3.8700000000000003E-12</v>
+        <v>3.3899999999999999E-12</v>
       </c>
       <c r="G33" s="1">
-        <v>3.8700000000000003E-12</v>
+        <v>3.3899999999999999E-12</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1">
         <v>1.8600000000000002E-12</v>
       </c>
       <c r="F34" s="1">
-        <v>1.31E-11</v>
+        <v>1.1500000000000001E-11</v>
       </c>
       <c r="G34" s="1">
-        <v>1.31E-11</v>
+        <v>1.1500000000000001E-11</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
         <v>1.8600000000000002E-12</v>
       </c>
       <c r="F35" s="1">
-        <v>1.31E-11</v>
+        <v>1.1500000000000001E-11</v>
       </c>
       <c r="G35" s="1">
-        <v>1.31E-11</v>
+        <v>1.1500000000000001E-11</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1">
         <v>3.6199999999999999E-12</v>
       </c>
       <c r="F36" s="1">
-        <v>2.4099999999999999E-11</v>
+        <v>2.11E-11</v>
       </c>
       <c r="G36" s="1">
-        <v>2.4099999999999999E-11</v>
+        <v>2.11E-11</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1">
         <v>3.6199999999999999E-12</v>
       </c>
       <c r="F37" s="1">
-        <v>2.4099999999999999E-11</v>
+        <v>2.11E-11</v>
       </c>
       <c r="G37" s="1">
-        <v>2.4099999999999999E-11</v>
+        <v>2.11E-11</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1">
         <v>4.4300000000000003E-12</v>
       </c>
       <c r="F38" s="1">
-        <v>2.7899999999999999E-11</v>
+        <v>2.4499999999999999E-11</v>
       </c>
       <c r="G38" s="1">
-        <v>2.7899999999999999E-11</v>
+        <v>2.4499999999999999E-11</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1605,103 +1662,103 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>4.4300000000000003E-12</v>
       </c>
       <c r="F39" s="1">
-        <v>2.7899999999999999E-11</v>
+        <v>2.4499999999999999E-11</v>
       </c>
       <c r="G39" s="1">
-        <v>2.7899999999999999E-11</v>
+        <v>2.4499999999999999E-11</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1">
         <v>8.9799999999999993E-12</v>
       </c>
       <c r="F40" s="1">
-        <v>5.3900000000000003E-11</v>
+        <v>4.7200000000000002E-11</v>
       </c>
       <c r="G40" s="1">
-        <v>5.3900000000000003E-11</v>
+        <v>4.7200000000000002E-11</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1">
         <v>8.9799999999999993E-12</v>
       </c>
       <c r="F41" s="1">
-        <v>5.3900000000000003E-11</v>
+        <v>4.7200000000000002E-11</v>
       </c>
       <c r="G41" s="1">
-        <v>5.3900000000000003E-11</v>
+        <v>4.7200000000000002E-11</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1">
         <v>1.5700000000000001E-11</v>
       </c>
       <c r="F42" s="1">
-        <v>8.9500000000000001E-11</v>
+        <v>7.8300000000000004E-11</v>
       </c>
       <c r="G42" s="1">
-        <v>8.9500000000000001E-11</v>
+        <v>7.8300000000000004E-11</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1709,363 +1766,363 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E43" s="1">
         <v>1.5700000000000001E-11</v>
       </c>
       <c r="F43" s="1">
-        <v>8.9500000000000001E-11</v>
+        <v>7.8300000000000004E-11</v>
       </c>
       <c r="G43" s="1">
-        <v>8.9500000000000001E-11</v>
+        <v>7.8300000000000004E-11</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1">
         <v>1.8300000000000001E-11</v>
       </c>
       <c r="F44" s="1">
-        <v>9.9899999999999999E-11</v>
+        <v>8.7400000000000003E-11</v>
       </c>
       <c r="G44" s="1">
-        <v>9.9899999999999999E-11</v>
+        <v>8.7400000000000003E-11</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="1">
         <v>1.8300000000000001E-11</v>
       </c>
       <c r="F45" s="1">
-        <v>9.9899999999999999E-11</v>
+        <v>8.7400000000000003E-11</v>
       </c>
       <c r="G45" s="1">
-        <v>9.9899999999999999E-11</v>
+        <v>8.7400000000000003E-11</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
         <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
       </c>
       <c r="E46" s="1">
         <v>2.6800000000000001E-11</v>
       </c>
       <c r="F46" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>1.2199999999999999E-10</v>
       </c>
       <c r="G46" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>1.2199999999999999E-10</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1">
         <v>2.6800000000000001E-11</v>
       </c>
       <c r="F47" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>1.2199999999999999E-10</v>
       </c>
       <c r="G47" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>1.2199999999999999E-10</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1">
         <v>1.88E-8</v>
       </c>
       <c r="F48" s="1">
-        <v>9.3999999999999995E-8</v>
+        <v>8.2199999999999995E-8</v>
       </c>
       <c r="G48" s="1">
-        <v>9.3999999999999995E-8</v>
+        <v>8.2199999999999995E-8</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1">
         <v>1.88E-8</v>
       </c>
       <c r="F49" s="1">
-        <v>9.3999999999999995E-8</v>
+        <v>8.2199999999999995E-8</v>
       </c>
       <c r="G49" s="1">
-        <v>9.3999999999999995E-8</v>
+        <v>8.2199999999999995E-8</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
         <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
       </c>
       <c r="E50" s="1">
         <v>3.1300000000000002E-8</v>
       </c>
       <c r="F50" s="1">
-        <v>1.4999999999999999E-7</v>
+        <v>1.31E-7</v>
       </c>
       <c r="G50" s="1">
-        <v>1.4999999999999999E-7</v>
+        <v>1.31E-7</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1">
         <v>3.1300000000000002E-8</v>
       </c>
       <c r="F51" s="1">
-        <v>1.4999999999999999E-7</v>
+        <v>1.31E-7</v>
       </c>
       <c r="G51" s="1">
-        <v>1.4999999999999999E-7</v>
+        <v>1.31E-7</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1">
         <v>3.8700000000000002E-8</v>
       </c>
       <c r="F52" s="1">
-        <v>1.7800000000000001E-7</v>
+        <v>1.5599999999999999E-7</v>
       </c>
       <c r="G52" s="1">
-        <v>1.7800000000000001E-7</v>
+        <v>1.5599999999999999E-7</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E53" s="1">
         <v>3.8700000000000002E-8</v>
       </c>
       <c r="F53" s="1">
-        <v>1.7800000000000001E-7</v>
+        <v>1.5599999999999999E-7</v>
       </c>
       <c r="G53" s="1">
-        <v>1.7800000000000001E-7</v>
+        <v>1.5599999999999999E-7</v>
       </c>
       <c r="H53" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1">
         <v>8.9599999999999995E-8</v>
       </c>
       <c r="F54" s="1">
-        <v>3.9799999999999999E-7</v>
+        <v>3.4799999999999999E-7</v>
       </c>
       <c r="G54" s="1">
-        <v>3.9799999999999999E-7</v>
+        <v>3.4799999999999999E-7</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
         <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
       </c>
       <c r="E55" s="1">
         <v>8.9599999999999995E-8</v>
       </c>
       <c r="F55" s="1">
-        <v>3.9799999999999999E-7</v>
+        <v>3.4799999999999999E-7</v>
       </c>
       <c r="G55" s="1">
-        <v>3.9799999999999999E-7</v>
+        <v>3.4799999999999999E-7</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E56" s="1">
         <v>1.43E-7</v>
       </c>
       <c r="F56" s="1">
-        <v>6.1200000000000003E-7</v>
+        <v>5.3600000000000004E-7</v>
       </c>
       <c r="G56" s="1">
-        <v>6.1200000000000003E-7</v>
+        <v>5.3600000000000004E-7</v>
       </c>
       <c r="H56" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2073,753 +2130,753 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1">
         <v>1.43E-7</v>
       </c>
       <c r="F57" s="1">
-        <v>6.1200000000000003E-7</v>
+        <v>5.3600000000000004E-7</v>
       </c>
       <c r="G57" s="1">
-        <v>6.1200000000000003E-7</v>
+        <v>5.3600000000000004E-7</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1">
-        <v>4.9599999999999999E-7</v>
+        <v>9.2500000000000004E-7</v>
       </c>
       <c r="F58" s="1">
-        <v>2.0499999999999999E-6</v>
+        <v>3.3500000000000001E-6</v>
       </c>
       <c r="G58" s="1">
-        <v>2.0499999999999999E-6</v>
+        <v>3.3500000000000001E-6</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E59" s="1">
-        <v>4.9599999999999999E-7</v>
+        <v>9.2500000000000004E-7</v>
       </c>
       <c r="F59" s="1">
-        <v>2.0499999999999999E-6</v>
+        <v>3.3500000000000001E-6</v>
       </c>
       <c r="G59" s="1">
-        <v>2.0499999999999999E-6</v>
+        <v>3.3500000000000001E-6</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E60" s="1">
-        <v>9.2500000000000004E-7</v>
+        <v>2.9500000000000001E-6</v>
       </c>
       <c r="F60" s="1">
-        <v>3.7000000000000002E-6</v>
+        <v>1.03E-5</v>
       </c>
       <c r="G60" s="1">
-        <v>3.7000000000000002E-6</v>
+        <v>1.03E-5</v>
       </c>
       <c r="H60" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E61" s="1">
-        <v>9.2500000000000004E-7</v>
+        <v>2.9500000000000001E-6</v>
       </c>
       <c r="F61" s="1">
-        <v>3.7000000000000002E-6</v>
+        <v>1.03E-5</v>
       </c>
       <c r="G61" s="1">
-        <v>3.7000000000000002E-6</v>
+        <v>1.03E-5</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E62" s="1">
-        <v>2.9500000000000001E-6</v>
+        <v>3.5899999999999999E-6</v>
       </c>
       <c r="F62" s="1">
-        <v>1.1399999999999999E-5</v>
+        <v>1.22E-5</v>
       </c>
       <c r="G62" s="1">
-        <v>1.1399999999999999E-5</v>
+        <v>1.22E-5</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
         <v>25</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="1">
-        <v>2.9500000000000001E-6</v>
+        <v>3.5899999999999999E-6</v>
       </c>
       <c r="F63" s="1">
-        <v>1.1399999999999999E-5</v>
+        <v>1.22E-5</v>
       </c>
       <c r="G63" s="1">
-        <v>1.1399999999999999E-5</v>
+        <v>1.22E-5</v>
       </c>
       <c r="H63" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E64" s="1">
-        <v>3.5899999999999999E-6</v>
+        <v>4.9699999999999998E-6</v>
       </c>
       <c r="F64" s="1">
-        <v>1.3499999999999999E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="G64" s="1">
-        <v>1.3499999999999999E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E65" s="1">
-        <v>3.5899999999999999E-6</v>
+        <v>4.9699999999999998E-6</v>
       </c>
       <c r="F65" s="1">
-        <v>1.3499999999999999E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="G65" s="1">
-        <v>1.3499999999999999E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="H65" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E66" s="1">
-        <v>4.9699999999999998E-6</v>
+        <v>2.7800000000000001E-5</v>
       </c>
       <c r="F66" s="1">
-        <v>1.8099999999999999E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="G66" s="1">
-        <v>1.8099999999999999E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="H66" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E67" s="1">
-        <v>4.9699999999999998E-6</v>
+        <v>2.7800000000000001E-5</v>
       </c>
       <c r="F67" s="1">
-        <v>1.8099999999999999E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="G67" s="1">
-        <v>1.8099999999999999E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="H67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1">
-        <v>2.7800000000000001E-5</v>
-      </c>
-      <c r="F68" s="1">
-        <v>9.8099999999999999E-5</v>
-      </c>
-      <c r="G68" s="1">
-        <v>9.8099999999999999E-5</v>
+        <v>5.0599999999999997E-5</v>
+      </c>
+      <c r="F68">
+        <v>1.5612199999999999E-4</v>
+      </c>
+      <c r="G68">
+        <v>1.5612199999999999E-4</v>
       </c>
       <c r="H68" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1">
-        <v>2.7800000000000001E-5</v>
-      </c>
-      <c r="F69" s="1">
-        <v>9.8099999999999999E-5</v>
-      </c>
-      <c r="G69" s="1">
-        <v>9.8099999999999999E-5</v>
+        <v>5.0599999999999997E-5</v>
+      </c>
+      <c r="F69">
+        <v>1.5612199999999999E-4</v>
+      </c>
+      <c r="G69">
+        <v>1.5612199999999999E-4</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1">
-        <v>5.0599999999999997E-5</v>
+        <v>8.6199999999999995E-5</v>
       </c>
       <c r="F70">
-        <v>1.73327E-4</v>
+        <v>2.58514E-4</v>
       </c>
       <c r="G70">
-        <v>1.73327E-4</v>
+        <v>2.58514E-4</v>
       </c>
       <c r="H70" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E71" s="1">
-        <v>5.0599999999999997E-5</v>
+        <v>8.6199999999999995E-5</v>
       </c>
       <c r="F71">
-        <v>1.73327E-4</v>
+        <v>2.58514E-4</v>
       </c>
       <c r="G71">
-        <v>1.73327E-4</v>
+        <v>2.58514E-4</v>
       </c>
       <c r="H71" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1">
-        <v>8.6199999999999995E-5</v>
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>1.4912700000000001E-4</v>
       </c>
       <c r="F72">
-        <v>2.8723799999999999E-4</v>
+        <v>4.34955E-4</v>
       </c>
       <c r="G72">
-        <v>2.8723799999999999E-4</v>
+        <v>4.34955E-4</v>
       </c>
       <c r="H72" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="1">
-        <v>8.6199999999999995E-5</v>
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>1.4912700000000001E-4</v>
       </c>
       <c r="F73">
-        <v>2.8723799999999999E-4</v>
+        <v>4.34955E-4</v>
       </c>
       <c r="G73">
-        <v>2.8723799999999999E-4</v>
+        <v>4.34955E-4</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E74">
-        <v>1.4912700000000001E-4</v>
+        <v>2.9889000000000001E-4</v>
       </c>
       <c r="F74">
-        <v>4.8365700000000002E-4</v>
+        <v>8.4820200000000005E-4</v>
       </c>
       <c r="G74">
-        <v>4.8365700000000002E-4</v>
+        <v>8.4820200000000005E-4</v>
       </c>
       <c r="H74" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>1.4912700000000001E-4</v>
+        <v>2.9889000000000001E-4</v>
       </c>
       <c r="F75">
-        <v>4.8365700000000002E-4</v>
+        <v>8.4820200000000005E-4</v>
       </c>
       <c r="G75">
-        <v>4.8365700000000002E-4</v>
+        <v>8.4820200000000005E-4</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>2.7681299999999999E-4</v>
+        <v>1.9559109999999998E-3</v>
       </c>
       <c r="F76">
-        <v>8.7414600000000002E-4</v>
+        <v>5.404491E-3</v>
       </c>
       <c r="G76">
-        <v>8.7414600000000002E-4</v>
+        <v>5.404491E-3</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E77">
-        <v>2.7681299999999999E-4</v>
+        <v>1.9559109999999998E-3</v>
       </c>
       <c r="F77">
-        <v>8.7414600000000002E-4</v>
+        <v>5.404491E-3</v>
       </c>
       <c r="G77">
-        <v>8.7414600000000002E-4</v>
+        <v>5.404491E-3</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>2.9889000000000001E-4</v>
+        <v>2.8737260000000001E-3</v>
       </c>
       <c r="F78">
-        <v>9.1966200000000002E-4</v>
+        <v>7.7369539999999999E-3</v>
       </c>
       <c r="G78">
-        <v>9.1966200000000002E-4</v>
+        <v>7.7369539999999999E-3</v>
       </c>
       <c r="H78" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>2.9889000000000001E-4</v>
+        <v>2.8737260000000001E-3</v>
       </c>
       <c r="F79">
-        <v>9.1966200000000002E-4</v>
+        <v>7.7369539999999999E-3</v>
       </c>
       <c r="G79">
-        <v>9.1966200000000002E-4</v>
+        <v>7.7369539999999999E-3</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E80">
-        <v>1.9559109999999998E-3</v>
+        <v>3.4369629999999999E-3</v>
       </c>
       <c r="F80">
-        <v>5.867733E-3</v>
+        <v>9.0220279999999996E-3</v>
       </c>
       <c r="G80">
-        <v>5.867733E-3</v>
+        <v>9.0220279999999996E-3</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E81">
-        <v>1.9559109999999998E-3</v>
+        <v>3.4369629999999999E-3</v>
       </c>
       <c r="F81">
-        <v>5.867733E-3</v>
+        <v>9.0220279999999996E-3</v>
       </c>
       <c r="G81">
-        <v>5.867733E-3</v>
+        <v>9.0220279999999996E-3</v>
       </c>
       <c r="H81" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E82">
-        <v>2.8737260000000001E-3</v>
+        <v>4.2803559999999999E-3</v>
       </c>
       <c r="F82">
-        <v>8.4109040000000003E-3</v>
+        <v>1.0961887999999999E-2</v>
       </c>
       <c r="G82">
-        <v>8.4109040000000003E-3</v>
+        <v>1.0961887999999999E-2</v>
       </c>
       <c r="H82" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>2.8737260000000001E-3</v>
+        <v>4.2803559999999999E-3</v>
       </c>
       <c r="F83">
-        <v>8.4109040000000003E-3</v>
+        <v>1.0961887999999999E-2</v>
       </c>
       <c r="G83">
-        <v>8.4109040000000003E-3</v>
+        <v>1.0961887999999999E-2</v>
       </c>
       <c r="H83" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E84">
-        <v>3.4369629999999999E-3</v>
+        <v>4.938998E-3</v>
       </c>
       <c r="F84">
-        <v>9.8198939999999992E-3</v>
+        <v>1.2347495E-2</v>
       </c>
       <c r="G84">
-        <v>9.8198939999999992E-3</v>
+        <v>1.2347495E-2</v>
       </c>
       <c r="H84" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E85">
-        <v>3.4369629999999999E-3</v>
+        <v>4.938998E-3</v>
       </c>
       <c r="F85">
-        <v>9.8198939999999992E-3</v>
+        <v>1.2347495E-2</v>
       </c>
       <c r="G85">
-        <v>9.8198939999999992E-3</v>
+        <v>1.2347495E-2</v>
       </c>
       <c r="H85" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2827,753 +2884,753 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E86">
-        <v>4.2803559999999999E-3</v>
+        <v>7.7171560000000002E-3</v>
       </c>
       <c r="F86">
-        <v>1.194518E-2</v>
+        <v>1.8844217E-2</v>
       </c>
       <c r="G86">
-        <v>1.194518E-2</v>
+        <v>1.8844217E-2</v>
       </c>
       <c r="H86" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E87">
-        <v>4.2803559999999999E-3</v>
+        <v>7.7171560000000002E-3</v>
       </c>
       <c r="F87">
-        <v>1.194518E-2</v>
+        <v>1.8844217E-2</v>
       </c>
       <c r="G87">
-        <v>1.194518E-2</v>
+        <v>1.8844217E-2</v>
       </c>
       <c r="H87" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
         <v>33</v>
       </c>
-      <c r="B88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" t="s">
-        <v>34</v>
-      </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>4.938998E-3</v>
+        <v>9.2478130000000006E-3</v>
       </c>
       <c r="F88">
-        <v>1.3469995E-2</v>
+        <v>2.2068643999999998E-2</v>
       </c>
       <c r="G88">
-        <v>1.3469995E-2</v>
+        <v>2.2068643999999998E-2</v>
       </c>
       <c r="H88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
         <v>33</v>
       </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>34</v>
-      </c>
       <c r="E89">
-        <v>4.938998E-3</v>
+        <v>9.2478130000000006E-3</v>
       </c>
       <c r="F89">
-        <v>1.3469995E-2</v>
+        <v>2.2068643999999998E-2</v>
       </c>
       <c r="G89">
-        <v>1.3469995E-2</v>
+        <v>2.2068643999999998E-2</v>
       </c>
       <c r="H89" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E90">
-        <v>5.6934860000000002E-3</v>
+        <v>3.7449389999999999E-2</v>
       </c>
       <c r="F90">
-        <v>1.5182629E-2</v>
+        <v>8.7381909999999993E-2</v>
       </c>
       <c r="G90">
-        <v>1.5182629E-2</v>
+        <v>8.7381909999999993E-2</v>
       </c>
       <c r="H90" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E91">
-        <v>5.6934860000000002E-3</v>
+        <v>3.7449389999999999E-2</v>
       </c>
       <c r="F91">
-        <v>1.5182629E-2</v>
+        <v>8.7381909999999993E-2</v>
       </c>
       <c r="G91">
-        <v>1.5182629E-2</v>
+        <v>8.7381909999999993E-2</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>7.7171560000000002E-3</v>
+        <v>3.8500876000000003E-2</v>
       </c>
       <c r="F92">
-        <v>2.0131710000000001E-2</v>
+        <v>8.7882433999999995E-2</v>
       </c>
       <c r="G92">
-        <v>2.0131710000000001E-2</v>
+        <v>8.7882433999999995E-2</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E93">
-        <v>7.7171560000000002E-3</v>
+        <v>3.8500876000000003E-2</v>
       </c>
       <c r="F93">
-        <v>2.0131710000000001E-2</v>
+        <v>8.7882433999999995E-2</v>
       </c>
       <c r="G93">
-        <v>2.0131710000000001E-2</v>
+        <v>8.7882433999999995E-2</v>
       </c>
       <c r="H93" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
         <v>29</v>
       </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94">
-        <v>9.2478130000000006E-3</v>
+        <v>4.1830066999999999E-2</v>
       </c>
       <c r="F94">
-        <v>2.3611436999999999E-2</v>
+        <v>9.3450148999999996E-2</v>
       </c>
       <c r="G94">
-        <v>2.3611436999999999E-2</v>
+        <v>9.3450148999999996E-2</v>
       </c>
       <c r="H94" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
         <v>29</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E95">
-        <v>9.2478130000000006E-3</v>
+        <v>4.1830066999999999E-2</v>
       </c>
       <c r="F95">
-        <v>2.3611436999999999E-2</v>
+        <v>9.3450148999999996E-2</v>
       </c>
       <c r="G95">
-        <v>2.3611436999999999E-2</v>
+        <v>9.3450148999999996E-2</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>2.0826283000000001E-2</v>
+        <v>5.2568427000000001E-2</v>
       </c>
       <c r="F96">
-        <v>5.2065707000000003E-2</v>
+        <v>0.11499343300000001</v>
       </c>
       <c r="G96">
-        <v>5.2065707000000003E-2</v>
+        <v>0.11499343300000001</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E97">
-        <v>2.0826283000000001E-2</v>
+        <v>5.2568427000000001E-2</v>
       </c>
       <c r="F97">
-        <v>5.2065707000000003E-2</v>
+        <v>0.11499343300000001</v>
       </c>
       <c r="G97">
-        <v>5.2065707000000003E-2</v>
+        <v>0.11499343300000001</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E98">
-        <v>3.7449389999999999E-2</v>
+        <v>6.4573059000000002E-2</v>
       </c>
       <c r="F98">
-        <v>9.1712792000000001E-2</v>
+        <v>0.13837084099999999</v>
       </c>
       <c r="G98">
-        <v>9.1712792000000001E-2</v>
+        <v>0.13837084099999999</v>
       </c>
       <c r="H98" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>3.7449389999999999E-2</v>
+        <v>6.4573059000000002E-2</v>
       </c>
       <c r="F99">
-        <v>9.1712792000000001E-2</v>
+        <v>0.13837084099999999</v>
       </c>
       <c r="G99">
-        <v>9.1712792000000001E-2</v>
+        <v>0.13837084099999999</v>
       </c>
       <c r="H99" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>3.8500876000000003E-2</v>
+        <v>8.1944212000000002E-2</v>
       </c>
       <c r="F100">
-        <v>9.2402102E-2</v>
+        <v>0.17208284400000001</v>
       </c>
       <c r="G100">
-        <v>9.2402102E-2</v>
+        <v>0.17208284400000001</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E101">
-        <v>3.8500876000000003E-2</v>
+        <v>8.1944212000000002E-2</v>
       </c>
       <c r="F101">
-        <v>9.2402102E-2</v>
+        <v>0.17208284400000001</v>
       </c>
       <c r="G101">
-        <v>9.2402102E-2</v>
+        <v>0.17208284400000001</v>
       </c>
       <c r="H101" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E102">
-        <v>4.1830066999999999E-2</v>
+        <v>0.104035839</v>
       </c>
       <c r="F102">
-        <v>9.8423685999999996E-2</v>
+        <v>0.21419143400000001</v>
       </c>
       <c r="G102">
-        <v>9.8423685999999996E-2</v>
+        <v>0.21419143400000001</v>
       </c>
       <c r="H102" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E103">
-        <v>4.1830066999999999E-2</v>
+        <v>0.104035839</v>
       </c>
       <c r="F103">
-        <v>9.8423685999999996E-2</v>
+        <v>0.21419143400000001</v>
       </c>
       <c r="G103">
-        <v>9.8423685999999996E-2</v>
+        <v>0.21419143400000001</v>
       </c>
       <c r="H103" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E104">
-        <v>5.2568427000000001E-2</v>
+        <v>0.12152853700000001</v>
       </c>
       <c r="F104">
-        <v>0.12131175399999999</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="G104">
-        <v>0.12131175399999999</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E105">
-        <v>5.2568427000000001E-2</v>
+        <v>0.121879758</v>
       </c>
       <c r="F105">
-        <v>0.12131175399999999</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="G105">
-        <v>0.12131175399999999</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="H105" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E106">
-        <v>6.4573059000000002E-2</v>
+        <v>0.121879758</v>
       </c>
       <c r="F106">
-        <v>0.146203153</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="G106">
-        <v>0.146203153</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="H106" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E107">
-        <v>6.4573059000000002E-2</v>
+        <v>0.12152853700000001</v>
       </c>
       <c r="F107">
-        <v>0.146203153</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="G107">
-        <v>0.146203153</v>
+        <v>0.24145989700000001</v>
       </c>
       <c r="H107" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E108">
-        <v>6.6124482999999998E-2</v>
+        <v>0.12721901399999999</v>
       </c>
       <c r="F108">
-        <v>0.146943297</v>
+        <v>0.24737030500000001</v>
       </c>
       <c r="G108">
-        <v>0.146943297</v>
+        <v>0.24737030500000001</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E109">
-        <v>6.6124482999999998E-2</v>
+        <v>0.12721901399999999</v>
       </c>
       <c r="F109">
-        <v>0.146943297</v>
+        <v>0.24737030500000001</v>
       </c>
       <c r="G109">
-        <v>0.146943297</v>
+        <v>0.24737030500000001</v>
       </c>
       <c r="H109" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E110">
-        <v>6.7715668000000007E-2</v>
+        <v>0.177889511</v>
       </c>
       <c r="F110">
-        <v>0.14774327500000001</v>
+        <v>0.33960724799999997</v>
       </c>
       <c r="G110">
-        <v>0.14774327500000001</v>
+        <v>0.33960724799999997</v>
       </c>
       <c r="H110" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>6.7715668000000007E-2</v>
+        <v>0.177889511</v>
       </c>
       <c r="F111">
-        <v>0.14774327500000001</v>
+        <v>0.33960724799999997</v>
       </c>
       <c r="G111">
-        <v>0.14774327500000001</v>
+        <v>0.33960724799999997</v>
       </c>
       <c r="H111" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>8.1944212000000002E-2</v>
+        <v>0.20879882299999999</v>
       </c>
       <c r="F112">
-        <v>0.175594739</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G112">
-        <v>0.175594739</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H112" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E113">
-        <v>8.1944212000000002E-2</v>
+        <v>0.20879882299999999</v>
       </c>
       <c r="F113">
-        <v>0.175594739</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G113">
-        <v>0.175594739</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H113" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E114">
-        <v>0.101590097</v>
+        <v>0.20422823600000001</v>
       </c>
       <c r="F114">
-        <v>0.21387388900000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G114">
-        <v>0.21387388900000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H114" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3581,51 +3638,51 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.101590097</v>
+        <v>0.204950153</v>
       </c>
       <c r="F115">
-        <v>0.21387388900000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G115">
-        <v>0.21387388900000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H115" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.104035839</v>
+        <v>0.20933908200000001</v>
       </c>
       <c r="F116">
-        <v>0.215246564</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G116">
-        <v>0.215246564</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H116" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3633,181 +3690,181 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E117">
-        <v>0.104035839</v>
+        <v>0.20422823600000001</v>
       </c>
       <c r="F117">
-        <v>0.215246564</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G117">
-        <v>0.215246564</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H117" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E118">
-        <v>0.12152853700000001</v>
+        <v>0.20933908200000001</v>
       </c>
       <c r="F118">
-        <v>0.24375951500000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G118">
-        <v>0.24375951500000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H118" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E119">
-        <v>0.121879758</v>
+        <v>0.204950153</v>
       </c>
       <c r="F119">
-        <v>0.24375951500000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="G119">
-        <v>0.24375951500000001</v>
+        <v>0.37255260299999998</v>
       </c>
       <c r="H119" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E120">
-        <v>0.121879758</v>
+        <v>0.22314050999999999</v>
       </c>
       <c r="F120">
-        <v>0.24375951500000001</v>
+        <v>0.39049589200000001</v>
       </c>
       <c r="G120">
-        <v>0.24375951500000001</v>
+        <v>0.39049589200000001</v>
       </c>
       <c r="H120" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E121">
-        <v>0.12152853700000001</v>
+        <v>0.22314050999999999</v>
       </c>
       <c r="F121">
-        <v>0.24375951500000001</v>
+        <v>0.39049589200000001</v>
       </c>
       <c r="G121">
-        <v>0.24375951500000001</v>
+        <v>0.39049589200000001</v>
       </c>
       <c r="H121" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E122">
-        <v>0.12721901399999999</v>
+        <v>0.27521704499999999</v>
       </c>
       <c r="F122">
-        <v>0.25026691299999998</v>
+        <v>0.47373425800000002</v>
       </c>
       <c r="G122">
-        <v>0.25026691299999998</v>
+        <v>0.47373425800000002</v>
       </c>
       <c r="H122" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E123">
-        <v>0.12721901399999999</v>
+        <v>0.27521704499999999</v>
       </c>
       <c r="F123">
-        <v>0.25026691299999998</v>
+        <v>0.47373425800000002</v>
       </c>
       <c r="G123">
-        <v>0.25026691299999998</v>
+        <v>0.47373425800000002</v>
       </c>
       <c r="H123" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3815,493 +3872,493 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E124">
-        <v>0.14329563100000001</v>
+        <v>0.30204305300000001</v>
       </c>
       <c r="F124">
-        <v>0.277346382</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G124">
-        <v>0.277346382</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H124" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E125">
-        <v>0.14329563100000001</v>
+        <v>0.29426299299999997</v>
       </c>
       <c r="F125">
-        <v>0.277346382</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G125">
-        <v>0.277346382</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H125" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0.15419365600000001</v>
+        <v>0.301005523</v>
       </c>
       <c r="F126">
-        <v>0.293702201</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G126">
-        <v>0.293702201</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H126" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E127">
-        <v>0.15419365600000001</v>
+        <v>0.30446887</v>
       </c>
       <c r="F127">
-        <v>0.293702201</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G127">
-        <v>0.293702201</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H127" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E128">
-        <v>0.177889511</v>
+        <v>0.29426299299999997</v>
       </c>
       <c r="F128">
-        <v>0.33354283299999998</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G128">
-        <v>0.33354283299999998</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H128" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>0.177889511</v>
+        <v>0.301005523</v>
       </c>
       <c r="F129">
-        <v>0.33354283299999998</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G129">
-        <v>0.33354283299999998</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H129" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E130">
-        <v>0.20879882299999999</v>
+        <v>0.30446887</v>
       </c>
       <c r="F130">
-        <v>0.36942190899999999</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G130">
-        <v>0.36942190899999999</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H130" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
         <v>32</v>
       </c>
       <c r="E131">
-        <v>0.20422823600000001</v>
+        <v>0.30204305300000001</v>
       </c>
       <c r="F131">
-        <v>0.36942190899999999</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="G131">
-        <v>0.36942190899999999</v>
+        <v>0.49183432799999999</v>
       </c>
       <c r="H131" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E132">
-        <v>0.20879882299999999</v>
+        <v>0.31308466299999999</v>
       </c>
       <c r="F132">
-        <v>0.36942190899999999</v>
+        <v>0.49808923700000002</v>
       </c>
       <c r="G132">
-        <v>0.36942190899999999</v>
+        <v>0.49808923700000002</v>
       </c>
       <c r="H132" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="B133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
-      </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>0.204950153</v>
+        <v>0.31308466299999999</v>
       </c>
       <c r="F133">
-        <v>0.36942190899999999</v>
+        <v>0.49808923700000002</v>
       </c>
       <c r="G133">
-        <v>0.36942190899999999</v>
+        <v>0.49808923700000002</v>
       </c>
       <c r="H133" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="B134" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" t="s">
-        <v>36</v>
-      </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E134">
-        <v>0.20933908200000001</v>
+        <v>0.32764911699999999</v>
       </c>
       <c r="F134">
-        <v>0.36942190899999999</v>
-      </c>
-      <c r="G134">
-        <v>0.36942190899999999</v>
+        <v>0.51347995999999996</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
       </c>
       <c r="H134" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E135">
-        <v>0.20422823600000001</v>
+        <v>0.32764911699999999</v>
       </c>
       <c r="F135">
-        <v>0.36942190899999999</v>
-      </c>
-      <c r="G135">
-        <v>0.36942190899999999</v>
+        <v>0.51347995999999996</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
         <v>35</v>
       </c>
-      <c r="C136" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" t="s">
-        <v>36</v>
-      </c>
       <c r="E136">
-        <v>0.204950153</v>
+        <v>0.341687517</v>
       </c>
       <c r="F136">
-        <v>0.36942190899999999</v>
-      </c>
-      <c r="G136">
-        <v>0.36942190899999999</v>
+        <v>0.524362891</v>
+      </c>
+      <c r="G136" t="s">
+        <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.20933908200000001</v>
+        <v>0.34458132800000002</v>
       </c>
       <c r="F137">
-        <v>0.36942190899999999</v>
-      </c>
-      <c r="G137">
-        <v>0.36942190899999999</v>
+        <v>0.524362891</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E138">
-        <v>0.22314050999999999</v>
+        <v>0.34458132800000002</v>
       </c>
       <c r="F138">
-        <v>0.38807045200000001</v>
-      </c>
-      <c r="G138">
-        <v>0.38807045200000001</v>
+        <v>0.524362891</v>
+      </c>
+      <c r="G138" t="s">
+        <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
         <v>35</v>
       </c>
-      <c r="C139" t="s">
-        <v>26</v>
-      </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E139">
-        <v>0.22314050999999999</v>
+        <v>0.341687517</v>
       </c>
       <c r="F139">
-        <v>0.38807045200000001</v>
-      </c>
-      <c r="G139">
-        <v>0.38807045200000001</v>
+        <v>0.524362891</v>
+      </c>
+      <c r="G139" t="s">
+        <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E140">
-        <v>0.27521704499999999</v>
+        <v>0.35103653400000001</v>
       </c>
       <c r="F140">
-        <v>0.47180064900000002</v>
-      </c>
-      <c r="G140">
-        <v>0.47180064900000002</v>
+        <v>0.52655480099999996</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
       </c>
       <c r="H140" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E141">
-        <v>0.27521704499999999</v>
+        <v>0.35103653400000001</v>
       </c>
       <c r="F141">
-        <v>0.47180064900000002</v>
-      </c>
-      <c r="G141">
-        <v>0.47180064900000002</v>
+        <v>0.52655480099999996</v>
+      </c>
+      <c r="G141" t="s">
+        <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E142">
-        <v>0.30204305300000001</v>
+        <v>0.39321680599999997</v>
       </c>
       <c r="F142">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G142">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G142" t="s">
+        <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4309,363 +4366,363 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E143">
-        <v>0.29426299299999997</v>
+        <v>0.397086361</v>
       </c>
       <c r="F143">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G143">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G143" t="s">
+        <v>6</v>
       </c>
       <c r="H143" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E144">
-        <v>0.301005523</v>
+        <v>0.39562631700000001</v>
       </c>
       <c r="F144">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G144">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G144" t="s">
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E145">
-        <v>0.30446887</v>
+        <v>0.39321680599999997</v>
       </c>
       <c r="F145">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G145">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G145" t="s">
+        <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E146">
-        <v>0.301005523</v>
+        <v>0.39562631700000001</v>
       </c>
       <c r="F146">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G146">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G146" t="s">
+        <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E147">
-        <v>0.29426299299999997</v>
+        <v>0.397086361</v>
       </c>
       <c r="F147">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G147">
-        <v>0.49373330199999999</v>
+        <v>0.571151615</v>
+      </c>
+      <c r="G147" t="s">
+        <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E148">
-        <v>0.30446887</v>
+        <v>0.47595475700000001</v>
       </c>
       <c r="F148">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G148">
-        <v>0.49373330199999999</v>
+        <v>0.62984002699999997</v>
+      </c>
+      <c r="G148" t="s">
+        <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.30204305300000001</v>
+        <v>0.47595475700000001</v>
       </c>
       <c r="F149">
-        <v>0.49373330199999999</v>
-      </c>
-      <c r="G149">
-        <v>0.49373330199999999</v>
+        <v>0.62984002699999997</v>
+      </c>
+      <c r="G149" t="s">
+        <v>6</v>
       </c>
       <c r="H149" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" t="s">
         <v>27</v>
       </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
-      </c>
       <c r="E150">
-        <v>0.31308466299999999</v>
+        <v>0.459158222</v>
       </c>
       <c r="F150">
-        <v>0.50093546200000005</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E151">
-        <v>0.31308466299999999</v>
+        <v>0.45035212800000002</v>
       </c>
       <c r="F151">
-        <v>0.50093546200000005</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G151" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E152">
-        <v>0.32764911699999999</v>
+        <v>0.47987811600000002</v>
       </c>
       <c r="F152">
-        <v>0.51734071199999998</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E153">
-        <v>0.32764911699999999</v>
+        <v>0.45749136099999999</v>
       </c>
       <c r="F153">
-        <v>0.51734071199999998</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G153" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.341687517</v>
+        <v>0.46636250899999998</v>
       </c>
       <c r="F154">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E155">
-        <v>0.34458132800000002</v>
+        <v>0.45749136099999999</v>
       </c>
       <c r="F155">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E156">
-        <v>0.35283346999999998</v>
+        <v>0.459158222</v>
       </c>
       <c r="F156">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G156" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H156" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4673,2629 +4730,1823 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>0.33799339900000003</v>
+        <v>0.47727825899999998</v>
       </c>
       <c r="F157">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E158">
-        <v>0.35103653400000001</v>
+        <v>0.45035212800000002</v>
       </c>
       <c r="F158">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E159">
-        <v>0.341687517</v>
+        <v>0.47987811600000002</v>
       </c>
       <c r="F159">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E160">
-        <v>0.34458132800000002</v>
+        <v>0.46636250899999998</v>
       </c>
       <c r="F160">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E161">
-        <v>0.35103653400000001</v>
+        <v>0.47727825899999998</v>
       </c>
       <c r="F161">
-        <v>0.52271625099999997</v>
+        <v>0.62984002699999997</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.33799339900000003</v>
+        <v>0.48853664699999999</v>
       </c>
       <c r="F162">
-        <v>0.52271625099999997</v>
+        <v>0.63328824699999997</v>
       </c>
       <c r="G162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E163">
-        <v>0.35283346999999998</v>
+        <v>0.48853664699999999</v>
       </c>
       <c r="F163">
-        <v>0.52271625099999997</v>
+        <v>0.63328824699999997</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E164">
-        <v>0.39321680599999997</v>
+        <v>0.51707766099999997</v>
       </c>
       <c r="F164">
-        <v>0.56726622999999998</v>
+        <v>0.66211164</v>
       </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E165">
-        <v>0.397086361</v>
+        <v>0.51707766099999997</v>
       </c>
       <c r="F165">
-        <v>0.56726622999999998</v>
+        <v>0.66211164</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H165" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E166">
-        <v>0.39562631700000001</v>
+        <v>0.534903244</v>
       </c>
       <c r="F166">
-        <v>0.56726622999999998</v>
+        <v>0.67668482600000002</v>
       </c>
       <c r="G166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E167">
-        <v>0.39321680599999997</v>
+        <v>0.534903244</v>
       </c>
       <c r="F167">
-        <v>0.56726622999999998</v>
+        <v>0.67668482600000002</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E168">
-        <v>0.39562631700000001</v>
+        <v>0.56419275199999996</v>
       </c>
       <c r="F168">
-        <v>0.56726622999999998</v>
+        <v>0.70524094000000004</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E169">
-        <v>0.397086361</v>
+        <v>0.56419275199999996</v>
       </c>
       <c r="F169">
-        <v>0.56726622999999998</v>
+        <v>0.70524094000000004</v>
       </c>
       <c r="G169" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H169" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s">
         <v>32</v>
       </c>
       <c r="E170">
-        <v>0.47595475700000001</v>
+        <v>0.57719822499999995</v>
       </c>
       <c r="F170">
-        <v>0.62592797700000002</v>
+        <v>0.71300957200000004</v>
       </c>
       <c r="G170" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>32</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E171">
-        <v>0.47595475700000001</v>
+        <v>0.57719822499999995</v>
       </c>
       <c r="F171">
-        <v>0.62592797700000002</v>
+        <v>0.71300957200000004</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H171" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E172">
-        <v>0.459158222</v>
+        <v>0.60214145399999996</v>
       </c>
       <c r="F172">
-        <v>0.62592797700000002</v>
+        <v>0.73517270599999995</v>
       </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E173">
-        <v>0.47987811600000002</v>
+        <v>0.60214145399999996</v>
       </c>
       <c r="F173">
-        <v>0.62592797700000002</v>
+        <v>0.73517270599999995</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H173" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.45035212800000002</v>
+        <v>0.63401660000000004</v>
       </c>
       <c r="F174">
-        <v>0.62592797700000002</v>
+        <v>0.76519244799999997</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E175">
-        <v>0.45749136099999999</v>
+        <v>0.63401660000000004</v>
       </c>
       <c r="F175">
-        <v>0.62592797700000002</v>
+        <v>0.76519244799999997</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H175" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D176" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E176">
-        <v>0.46636250899999998</v>
+        <v>0.66099359000000002</v>
       </c>
       <c r="F176">
-        <v>0.62592797700000002</v>
+        <v>0.78868553299999999</v>
       </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E177">
-        <v>0.45749136099999999</v>
+        <v>0.66099359000000002</v>
       </c>
       <c r="F177">
-        <v>0.62592797700000002</v>
+        <v>0.78868553299999999</v>
       </c>
       <c r="G177" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H177" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E178">
-        <v>0.47727825899999998</v>
+        <v>0.71999506499999999</v>
       </c>
       <c r="F178">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.459158222</v>
+        <v>0.71999506499999999</v>
       </c>
       <c r="F179">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G179" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H179" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E180">
-        <v>0.45035212800000002</v>
+        <v>0.70153809099999997</v>
       </c>
       <c r="F180">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G180" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" t="s">
         <v>35</v>
       </c>
-      <c r="C181" t="s">
-        <v>28</v>
-      </c>
-      <c r="D181" t="s">
-        <v>36</v>
-      </c>
       <c r="E181">
-        <v>0.47987811600000002</v>
+        <v>0.70997172799999997</v>
       </c>
       <c r="F181">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H181" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E182">
-        <v>0.46636250899999998</v>
+        <v>0.70997172799999997</v>
       </c>
       <c r="F182">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H182" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E183">
-        <v>0.47388132500000002</v>
+        <v>0.69363265900000004</v>
       </c>
       <c r="F183">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H183" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E184">
-        <v>0.47727825899999998</v>
+        <v>0.71850153299999997</v>
       </c>
       <c r="F184">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H184" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E185">
-        <v>0.47388132500000002</v>
+        <v>0.69363265900000004</v>
       </c>
       <c r="F185">
-        <v>0.62592797700000002</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H185" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
         <v>33</v>
       </c>
-      <c r="B186" t="s">
-        <v>23</v>
-      </c>
-      <c r="C186" t="s">
-        <v>34</v>
-      </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E186">
-        <v>0.48853664699999999</v>
+        <v>0.69636142099999998</v>
       </c>
       <c r="F186">
-        <v>0.63036986800000006</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H186" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E187">
-        <v>0.48853664699999999</v>
+        <v>0.71850153299999997</v>
       </c>
       <c r="F187">
-        <v>0.63036986800000006</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G187" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H187" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>0.51707766099999997</v>
+        <v>0.70153809099999997</v>
       </c>
       <c r="F188">
-        <v>0.66009914199999997</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H188" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E189">
-        <v>0.51707766099999997</v>
+        <v>0.69636142099999998</v>
       </c>
       <c r="F189">
-        <v>0.66009914199999997</v>
+        <v>0.80424980700000004</v>
       </c>
       <c r="G189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C190" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" t="s">
         <v>26</v>
       </c>
-      <c r="D190" t="s">
-        <v>28</v>
-      </c>
       <c r="E190">
-        <v>0.534903244</v>
+        <v>0.73951060099999999</v>
       </c>
       <c r="F190">
-        <v>0.67566725500000002</v>
+        <v>0.80883972000000004</v>
       </c>
       <c r="G190" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" t="s">
         <v>28</v>
       </c>
-      <c r="D191" t="s">
-        <v>26</v>
-      </c>
       <c r="E191">
-        <v>0.534903244</v>
+        <v>0.73756438099999999</v>
       </c>
       <c r="F191">
-        <v>0.67566725500000002</v>
+        <v>0.80883972000000004</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.56419275199999996</v>
+        <v>0.73756438099999999</v>
       </c>
       <c r="F192">
-        <v>0.70524094000000004</v>
+        <v>0.80883972000000004</v>
       </c>
       <c r="G192" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E193">
-        <v>0.56419275199999996</v>
+        <v>0.73951060099999999</v>
       </c>
       <c r="F193">
-        <v>0.70524094000000004</v>
+        <v>0.80883972000000004</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H193" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.57719822499999995</v>
+        <v>0.79176233100000004</v>
       </c>
       <c r="F194">
-        <v>0.71405965999999998</v>
+        <v>0.84831678399999999</v>
       </c>
       <c r="G194" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E195">
-        <v>0.57719822499999995</v>
+        <v>0.786639325</v>
       </c>
       <c r="F195">
-        <v>0.71405965999999998</v>
+        <v>0.84831678399999999</v>
       </c>
       <c r="G195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.60214145399999996</v>
+        <v>0.79176233100000004</v>
       </c>
       <c r="F196">
-        <v>0.73731606699999996</v>
+        <v>0.84831678399999999</v>
       </c>
       <c r="G196" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H196" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E197">
-        <v>0.60214145399999996</v>
+        <v>0.786639325</v>
       </c>
       <c r="F197">
-        <v>0.73731606699999996</v>
+        <v>0.84831678399999999</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.60946088099999995</v>
+        <v>0.81225706900000005</v>
       </c>
       <c r="F198">
-        <v>0.73874046199999999</v>
+        <v>0.86148477000000001</v>
       </c>
       <c r="G198" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H198" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E199">
-        <v>0.60946088099999995</v>
+        <v>0.81225706900000005</v>
       </c>
       <c r="F199">
-        <v>0.73874046199999999</v>
+        <v>0.86148477000000001</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H199" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D200" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.63401660000000004</v>
+        <v>0.83122277200000005</v>
       </c>
       <c r="F200">
-        <v>0.75328704899999999</v>
+        <v>0.87278391099999997</v>
       </c>
       <c r="G200" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H200" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E201">
-        <v>0.63401660000000004</v>
+        <v>0.83122277200000005</v>
       </c>
       <c r="F201">
-        <v>0.75328704899999999</v>
+        <v>0.87278391099999997</v>
       </c>
       <c r="G201" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E202">
-        <v>0.63067799700000005</v>
+        <v>0.92591008200000002</v>
       </c>
       <c r="F202">
-        <v>0.75328704899999999</v>
+        <v>0.96257978799999999</v>
       </c>
       <c r="G202" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H202" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.63067799700000005</v>
+        <v>0.92591008200000002</v>
       </c>
       <c r="F203">
-        <v>0.75328704899999999</v>
+        <v>0.96257978799999999</v>
       </c>
       <c r="G203" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H203" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E204">
-        <v>0.66108861100000005</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="F204">
-        <v>0.77020032400000005</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G204" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H204" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.66099359000000002</v>
+        <v>0.99497632300000005</v>
       </c>
       <c r="F205">
-        <v>0.77020032400000005</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G205" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H205" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
         <v>13</v>
       </c>
-      <c r="B206" t="s">
-        <v>19</v>
-      </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.66099359000000002</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="F206">
-        <v>0.77020032400000005</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G206" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E207">
-        <v>0.66108861100000005</v>
+        <v>0.99497632300000005</v>
       </c>
       <c r="F207">
-        <v>0.77020032400000005</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G207" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H207" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E208">
-        <v>0.71999506499999999</v>
+        <v>0.98343167200000003</v>
       </c>
       <c r="F208">
-        <v>0.79265511700000002</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G208" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H208" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E209">
-        <v>0.71999506499999999</v>
+        <v>0.97341790500000003</v>
       </c>
       <c r="F209">
-        <v>0.79265511700000002</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H209" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
         <v>8</v>
       </c>
-      <c r="B210" t="s">
-        <v>27</v>
-      </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E210">
-        <v>0.70153809099999997</v>
+        <v>0.97341790500000003</v>
       </c>
       <c r="F210">
-        <v>0.79265511700000002</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E211">
-        <v>0.70997172799999997</v>
+        <v>0.98343167200000003</v>
       </c>
       <c r="F211">
-        <v>0.79265511700000002</v>
+        <v>0.99878470799999997</v>
       </c>
       <c r="G211" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H211" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
-      </c>
-      <c r="E212">
-        <v>0.70997172799999997</v>
-      </c>
-      <c r="F212">
-        <v>0.79265511700000002</v>
+        <v>26</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
       </c>
       <c r="G212" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H212" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
-      </c>
-      <c r="E213">
-        <v>0.69363265900000004</v>
-      </c>
-      <c r="F213">
-        <v>0.79265511700000002</v>
+        <v>37</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D214" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214">
-        <v>0.71850153299999997</v>
-      </c>
-      <c r="F214">
-        <v>0.79265511700000002</v>
+        <v>27</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
       </c>
       <c r="G214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
-      </c>
-      <c r="E215">
-        <v>0.71850153299999997</v>
-      </c>
-      <c r="F215">
-        <v>0.79265511700000002</v>
+        <v>35</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
       </c>
       <c r="G215" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H215" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D216" t="s">
-        <v>14</v>
-      </c>
-      <c r="E216">
-        <v>0.69363265900000004</v>
-      </c>
-      <c r="F216">
-        <v>0.79265511700000002</v>
+        <v>28</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
       </c>
       <c r="G216" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H216" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
-      </c>
-      <c r="E217">
-        <v>0.69636142099999998</v>
-      </c>
-      <c r="F217">
-        <v>0.79265511700000002</v>
+        <v>34</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
+        <v>6</v>
       </c>
       <c r="G217" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218">
-        <v>0.70153809099999997</v>
-      </c>
-      <c r="F218">
-        <v>0.79265511700000002</v>
+        <v>29</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>6</v>
       </c>
       <c r="G218" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H218" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>30</v>
-      </c>
-      <c r="E219">
-        <v>0.69636142099999998</v>
-      </c>
-      <c r="F219">
-        <v>0.79265511700000002</v>
+        <v>39</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
       </c>
       <c r="G219" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H219" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220">
-        <v>0.73951060099999999</v>
-      </c>
-      <c r="F220">
-        <v>0.79947091999999997</v>
+        <v>25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
       </c>
       <c r="G220" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H220" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
-      </c>
-      <c r="E221">
-        <v>0.73756438099999999</v>
-      </c>
-      <c r="F221">
-        <v>0.79947091999999997</v>
+        <v>36</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>6</v>
       </c>
       <c r="G221" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>22</v>
-      </c>
-      <c r="E222">
-        <v>0.73756438099999999</v>
-      </c>
-      <c r="F222">
-        <v>0.79947091999999997</v>
+        <v>38</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
       </c>
       <c r="G222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223">
-        <v>0.73951060099999999</v>
-      </c>
-      <c r="F223">
-        <v>0.79947091999999997</v>
+        <v>31</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>6</v>
       </c>
       <c r="G223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H223" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
-      </c>
-      <c r="E224">
-        <v>0.79176233100000004</v>
-      </c>
-      <c r="F224">
-        <v>0.84080955499999999</v>
+        <v>32</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
       </c>
       <c r="G224" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H224" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
-      </c>
-      <c r="E225">
-        <v>0.786639325</v>
-      </c>
-      <c r="F225">
-        <v>0.84080955499999999</v>
+        <v>30</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
       </c>
       <c r="G225" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H225" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D226" t="s">
-        <v>22</v>
-      </c>
-      <c r="E226">
-        <v>0.79176233100000004</v>
-      </c>
-      <c r="F226">
-        <v>0.84080955499999999</v>
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
       </c>
       <c r="G226" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H226" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" t="s">
-        <v>25</v>
-      </c>
-      <c r="C227" t="s">
-        <v>16</v>
-      </c>
-      <c r="D227" t="s">
-        <v>26</v>
-      </c>
-      <c r="E227">
-        <v>0.786639325</v>
-      </c>
-      <c r="F227">
-        <v>0.84080955499999999</v>
-      </c>
-      <c r="G227" t="s">
-        <v>10</v>
-      </c>
-      <c r="H227" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" t="s">
-        <v>14</v>
-      </c>
-      <c r="D228" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228">
-        <v>0.81225706900000005</v>
-      </c>
-      <c r="F228">
-        <v>0.85500744100000003</v>
-      </c>
-      <c r="G228" t="s">
-        <v>10</v>
-      </c>
-      <c r="H228" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>4</v>
-      </c>
-      <c r="B229" t="s">
-        <v>13</v>
-      </c>
-      <c r="C229" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" t="s">
-        <v>14</v>
-      </c>
-      <c r="E229">
-        <v>0.81225706900000005</v>
-      </c>
-      <c r="F229">
-        <v>0.85500744100000003</v>
-      </c>
-      <c r="G229" t="s">
-        <v>10</v>
-      </c>
-      <c r="H229" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>27</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230">
-        <v>0.83122277200000005</v>
-      </c>
-      <c r="F230">
-        <v>0.86736289300000002</v>
-      </c>
-      <c r="G230" t="s">
-        <v>10</v>
-      </c>
-      <c r="H230" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>27</v>
-      </c>
-      <c r="C231" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231">
-        <v>0.83122277200000005</v>
-      </c>
-      <c r="F231">
-        <v>0.86736289300000002</v>
-      </c>
-      <c r="G231" t="s">
-        <v>10</v>
-      </c>
-      <c r="H231" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>21</v>
-      </c>
-      <c r="B232" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" t="s">
-        <v>16</v>
-      </c>
-      <c r="E232">
-        <v>0.92591008200000002</v>
-      </c>
-      <c r="F232">
-        <v>0.95783801599999996</v>
-      </c>
-      <c r="G232" t="s">
-        <v>10</v>
-      </c>
-      <c r="H232" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" t="s">
-        <v>21</v>
-      </c>
-      <c r="C233" t="s">
-        <v>16</v>
-      </c>
-      <c r="D233" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233">
-        <v>0.92591008200000002</v>
-      </c>
-      <c r="F233">
-        <v>0.95783801599999996</v>
-      </c>
-      <c r="G233" t="s">
-        <v>10</v>
-      </c>
-      <c r="H233" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>13</v>
-      </c>
-      <c r="B234" t="s">
-        <v>33</v>
-      </c>
-      <c r="C234" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" t="s">
-        <v>34</v>
-      </c>
-      <c r="E234">
-        <v>0.97341790500000003</v>
-      </c>
-      <c r="F234">
-        <v>0.99837733799999995</v>
-      </c>
-      <c r="G234" t="s">
-        <v>10</v>
-      </c>
-      <c r="H234" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>33</v>
-      </c>
-      <c r="B235" t="s">
-        <v>13</v>
-      </c>
-      <c r="C235" t="s">
-        <v>34</v>
-      </c>
-      <c r="D235" t="s">
-        <v>14</v>
-      </c>
-      <c r="E235">
-        <v>0.97341790500000003</v>
-      </c>
-      <c r="F235">
-        <v>0.99837733799999995</v>
-      </c>
-      <c r="G235" t="s">
-        <v>10</v>
-      </c>
-      <c r="H235" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>16</v>
-      </c>
-      <c r="D236" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236">
-        <v>0.99497632300000005</v>
-      </c>
-      <c r="F236">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G236" t="s">
-        <v>10</v>
-      </c>
-      <c r="H236" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" t="s">
-        <v>23</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>24</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="F237">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G237" t="s">
-        <v>10</v>
-      </c>
-      <c r="H237" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>23</v>
-      </c>
-      <c r="C238" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" t="s">
-        <v>24</v>
-      </c>
-      <c r="E238">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="F238">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G238" t="s">
-        <v>10</v>
-      </c>
-      <c r="H238" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>15</v>
-      </c>
-      <c r="C239" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" t="s">
-        <v>16</v>
-      </c>
-      <c r="E239">
-        <v>0.99497632300000005</v>
-      </c>
-      <c r="F239">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G239" t="s">
-        <v>10</v>
-      </c>
-      <c r="H239" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" t="s">
-        <v>11</v>
-      </c>
-      <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240">
-        <v>0.98343167200000003</v>
-      </c>
-      <c r="F240">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G240" t="s">
-        <v>10</v>
-      </c>
-      <c r="H240" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241">
-        <v>0.98343167200000003</v>
-      </c>
-      <c r="F241">
-        <v>0.99878470799999997</v>
-      </c>
-      <c r="G241" t="s">
-        <v>10</v>
-      </c>
-      <c r="H241" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" t="s">
-        <v>10</v>
-      </c>
-      <c r="F242" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" t="s">
-        <v>10</v>
-      </c>
-      <c r="H242" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>31</v>
-      </c>
-      <c r="B243" t="s">
-        <v>31</v>
-      </c>
-      <c r="C243" t="s">
-        <v>32</v>
-      </c>
-      <c r="D243" t="s">
-        <v>32</v>
-      </c>
-      <c r="E243" t="s">
-        <v>10</v>
-      </c>
-      <c r="F243" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" t="s">
-        <v>10</v>
-      </c>
-      <c r="H243" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>17</v>
-      </c>
-      <c r="B244" t="s">
-        <v>17</v>
-      </c>
-      <c r="C244" t="s">
-        <v>18</v>
-      </c>
-      <c r="D244" t="s">
-        <v>18</v>
-      </c>
-      <c r="E244" t="s">
-        <v>10</v>
-      </c>
-      <c r="F244" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" t="s">
-        <v>10</v>
-      </c>
-      <c r="H244" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>27</v>
-      </c>
-      <c r="B245" t="s">
-        <v>27</v>
-      </c>
-      <c r="C245" t="s">
-        <v>28</v>
-      </c>
-      <c r="D245" t="s">
-        <v>28</v>
-      </c>
-      <c r="E245" t="s">
-        <v>10</v>
-      </c>
-      <c r="F245" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" t="s">
-        <v>10</v>
-      </c>
-      <c r="H245" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>23</v>
-      </c>
-      <c r="B246" t="s">
-        <v>23</v>
-      </c>
-      <c r="C246" t="s">
-        <v>24</v>
-      </c>
-      <c r="D246" t="s">
-        <v>24</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" t="s">
-        <v>10</v>
-      </c>
-      <c r="H246" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" t="s">
-        <v>15</v>
-      </c>
-      <c r="C247" t="s">
-        <v>16</v>
-      </c>
-      <c r="D247" t="s">
-        <v>16</v>
-      </c>
-      <c r="E247" t="s">
-        <v>10</v>
-      </c>
-      <c r="F247" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" t="s">
-        <v>10</v>
-      </c>
-      <c r="H247" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>21</v>
-      </c>
-      <c r="B248" t="s">
-        <v>21</v>
-      </c>
-      <c r="C248" t="s">
-        <v>22</v>
-      </c>
-      <c r="D248" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" t="s">
-        <v>10</v>
-      </c>
-      <c r="F248" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" t="s">
-        <v>10</v>
-      </c>
-      <c r="H248" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>25</v>
-      </c>
-      <c r="B249" t="s">
-        <v>25</v>
-      </c>
-      <c r="C249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D249" t="s">
-        <v>26</v>
-      </c>
-      <c r="E249" t="s">
-        <v>10</v>
-      </c>
-      <c r="F249" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" t="s">
-        <v>10</v>
-      </c>
-      <c r="H249" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>11</v>
-      </c>
-      <c r="B250" t="s">
-        <v>11</v>
-      </c>
-      <c r="C250" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" t="s">
-        <v>10</v>
-      </c>
-      <c r="F250" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" t="s">
-        <v>10</v>
-      </c>
-      <c r="H250" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>33</v>
-      </c>
-      <c r="B251" t="s">
-        <v>33</v>
-      </c>
-      <c r="C251" t="s">
-        <v>34</v>
-      </c>
-      <c r="D251" t="s">
-        <v>34</v>
-      </c>
-      <c r="E251" t="s">
-        <v>10</v>
-      </c>
-      <c r="F251" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" t="s">
-        <v>10</v>
-      </c>
-      <c r="H251" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" t="s">
-        <v>35</v>
-      </c>
-      <c r="B252" t="s">
-        <v>35</v>
-      </c>
-      <c r="C252" t="s">
-        <v>36</v>
-      </c>
-      <c r="D252" t="s">
-        <v>36</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" t="s">
-        <v>10</v>
-      </c>
-      <c r="H252" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>13</v>
-      </c>
-      <c r="B253" t="s">
-        <v>13</v>
-      </c>
-      <c r="C253" t="s">
-        <v>14</v>
-      </c>
-      <c r="D253" t="s">
-        <v>14</v>
-      </c>
-      <c r="E253" t="s">
-        <v>10</v>
-      </c>
-      <c r="F253" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" t="s">
-        <v>10</v>
-      </c>
-      <c r="H253" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>8</v>
-      </c>
-      <c r="B254" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" t="s">
-        <v>9</v>
-      </c>
-      <c r="E254" t="s">
-        <v>10</v>
-      </c>
-      <c r="F254" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" t="s">
-        <v>10</v>
-      </c>
-      <c r="H254" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="s">
-        <v>19</v>
-      </c>
-      <c r="B255" t="s">
-        <v>19</v>
-      </c>
-      <c r="C255" t="s">
-        <v>20</v>
-      </c>
-      <c r="D255" t="s">
-        <v>20</v>
-      </c>
-      <c r="E255" t="s">
-        <v>10</v>
-      </c>
-      <c r="F255" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" t="s">
-        <v>10</v>
-      </c>
-      <c r="H255" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>29</v>
-      </c>
-      <c r="B256" t="s">
-        <v>29</v>
-      </c>
-      <c r="C256" t="s">
-        <v>30</v>
-      </c>
-      <c r="D256" t="s">
-        <v>30</v>
-      </c>
-      <c r="E256" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" t="s">
-        <v>10</v>
-      </c>
-      <c r="H256" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" t="s">
-        <v>6</v>
-      </c>
-      <c r="E257" t="s">
-        <v>10</v>
-      </c>
-      <c r="F257" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" t="s">
-        <v>10</v>
-      </c>
-      <c r="H257" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:F258">
+  <sortState ref="A4:F227">
     <sortCondition ref="F3"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hier.clust.alkanes/3.ind.waxGHtraits.PVAL/traits.ORD.PVAL.xlsx
+++ b/Hier.clust.alkanes/3.ind.waxGHtraits.PVAL/traits.ORD.PVAL.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="40">
   <si>
     <t>trait2</t>
   </si>
@@ -223,8 +223,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -276,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -300,6 +302,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +326,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,7 +663,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G134" sqref="G90:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3002,11 +3006,11 @@
       <c r="F90">
         <v>8.7381909999999993E-2</v>
       </c>
-      <c r="G90">
-        <v>8.7381909999999993E-2</v>
+      <c r="G90" t="s">
+        <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3028,11 +3032,11 @@
       <c r="F91">
         <v>8.7381909999999993E-2</v>
       </c>
-      <c r="G91">
-        <v>8.7381909999999993E-2</v>
+      <c r="G91" t="s">
+        <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3054,11 +3058,11 @@
       <c r="F92">
         <v>8.7882433999999995E-2</v>
       </c>
-      <c r="G92">
-        <v>8.7882433999999995E-2</v>
+      <c r="G92" t="s">
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3080,11 +3084,11 @@
       <c r="F93">
         <v>8.7882433999999995E-2</v>
       </c>
-      <c r="G93">
-        <v>8.7882433999999995E-2</v>
+      <c r="G93" t="s">
+        <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3106,11 +3110,11 @@
       <c r="F94">
         <v>9.3450148999999996E-2</v>
       </c>
-      <c r="G94">
-        <v>9.3450148999999996E-2</v>
+      <c r="G94" t="s">
+        <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3132,11 +3136,11 @@
       <c r="F95">
         <v>9.3450148999999996E-2</v>
       </c>
-      <c r="G95">
-        <v>9.3450148999999996E-2</v>
+      <c r="G95" t="s">
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3158,11 +3162,11 @@
       <c r="F96">
         <v>0.11499343300000001</v>
       </c>
-      <c r="G96">
-        <v>0.11499343300000001</v>
+      <c r="G96" t="s">
+        <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3184,11 +3188,11 @@
       <c r="F97">
         <v>0.11499343300000001</v>
       </c>
-      <c r="G97">
-        <v>0.11499343300000001</v>
+      <c r="G97" t="s">
+        <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3210,11 +3214,11 @@
       <c r="F98">
         <v>0.13837084099999999</v>
       </c>
-      <c r="G98">
-        <v>0.13837084099999999</v>
+      <c r="G98" t="s">
+        <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3236,11 +3240,11 @@
       <c r="F99">
         <v>0.13837084099999999</v>
       </c>
-      <c r="G99">
-        <v>0.13837084099999999</v>
+      <c r="G99" t="s">
+        <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3262,11 +3266,11 @@
       <c r="F100">
         <v>0.17208284400000001</v>
       </c>
-      <c r="G100">
-        <v>0.17208284400000001</v>
+      <c r="G100" t="s">
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3288,11 +3292,11 @@
       <c r="F101">
         <v>0.17208284400000001</v>
       </c>
-      <c r="G101">
-        <v>0.17208284400000001</v>
+      <c r="G101" t="s">
+        <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3314,11 +3318,11 @@
       <c r="F102">
         <v>0.21419143400000001</v>
       </c>
-      <c r="G102">
-        <v>0.21419143400000001</v>
+      <c r="G102" t="s">
+        <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3340,11 +3344,11 @@
       <c r="F103">
         <v>0.21419143400000001</v>
       </c>
-      <c r="G103">
-        <v>0.21419143400000001</v>
+      <c r="G103" t="s">
+        <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3366,11 +3370,11 @@
       <c r="F104">
         <v>0.24145989700000001</v>
       </c>
-      <c r="G104">
-        <v>0.24145989700000001</v>
+      <c r="G104" t="s">
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3392,11 +3396,11 @@
       <c r="F105">
         <v>0.24145989700000001</v>
       </c>
-      <c r="G105">
-        <v>0.24145989700000001</v>
+      <c r="G105" t="s">
+        <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3418,11 +3422,11 @@
       <c r="F106">
         <v>0.24145989700000001</v>
       </c>
-      <c r="G106">
-        <v>0.24145989700000001</v>
+      <c r="G106" t="s">
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3444,11 +3448,11 @@
       <c r="F107">
         <v>0.24145989700000001</v>
       </c>
-      <c r="G107">
-        <v>0.24145989700000001</v>
+      <c r="G107" t="s">
+        <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3470,11 +3474,11 @@
       <c r="F108">
         <v>0.24737030500000001</v>
       </c>
-      <c r="G108">
-        <v>0.24737030500000001</v>
+      <c r="G108" t="s">
+        <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3496,11 +3500,11 @@
       <c r="F109">
         <v>0.24737030500000001</v>
       </c>
-      <c r="G109">
-        <v>0.24737030500000001</v>
+      <c r="G109" t="s">
+        <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3522,11 +3526,11 @@
       <c r="F110">
         <v>0.33960724799999997</v>
       </c>
-      <c r="G110">
-        <v>0.33960724799999997</v>
+      <c r="G110" t="s">
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3548,11 +3552,11 @@
       <c r="F111">
         <v>0.33960724799999997</v>
       </c>
-      <c r="G111">
-        <v>0.33960724799999997</v>
+      <c r="G111" t="s">
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3574,11 +3578,11 @@
       <c r="F112">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G112">
-        <v>0.37255260299999998</v>
+      <c r="G112" t="s">
+        <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3600,11 +3604,11 @@
       <c r="F113">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G113">
-        <v>0.37255260299999998</v>
+      <c r="G113" t="s">
+        <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3626,11 +3630,11 @@
       <c r="F114">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G114">
-        <v>0.37255260299999998</v>
+      <c r="G114" t="s">
+        <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3652,11 +3656,11 @@
       <c r="F115">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G115">
-        <v>0.37255260299999998</v>
+      <c r="G115" t="s">
+        <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3678,11 +3682,11 @@
       <c r="F116">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G116">
-        <v>0.37255260299999998</v>
+      <c r="G116" t="s">
+        <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3704,11 +3708,11 @@
       <c r="F117">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G117">
-        <v>0.37255260299999998</v>
+      <c r="G117" t="s">
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3730,11 +3734,11 @@
       <c r="F118">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G118">
-        <v>0.37255260299999998</v>
+      <c r="G118" t="s">
+        <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3756,11 +3760,11 @@
       <c r="F119">
         <v>0.37255260299999998</v>
       </c>
-      <c r="G119">
-        <v>0.37255260299999998</v>
+      <c r="G119" t="s">
+        <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3782,11 +3786,11 @@
       <c r="F120">
         <v>0.39049589200000001</v>
       </c>
-      <c r="G120">
-        <v>0.39049589200000001</v>
+      <c r="G120" t="s">
+        <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3808,11 +3812,11 @@
       <c r="F121">
         <v>0.39049589200000001</v>
       </c>
-      <c r="G121">
-        <v>0.39049589200000001</v>
+      <c r="G121" t="s">
+        <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3834,11 +3838,11 @@
       <c r="F122">
         <v>0.47373425800000002</v>
       </c>
-      <c r="G122">
-        <v>0.47373425800000002</v>
+      <c r="G122" t="s">
+        <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3860,11 +3864,11 @@
       <c r="F123">
         <v>0.47373425800000002</v>
       </c>
-      <c r="G123">
-        <v>0.47373425800000002</v>
+      <c r="G123" t="s">
+        <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3886,11 +3890,11 @@
       <c r="F124">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G124">
-        <v>0.49183432799999999</v>
+      <c r="G124" t="s">
+        <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3912,11 +3916,11 @@
       <c r="F125">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G125">
-        <v>0.49183432799999999</v>
+      <c r="G125" t="s">
+        <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3938,11 +3942,11 @@
       <c r="F126">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G126">
-        <v>0.49183432799999999</v>
+      <c r="G126" t="s">
+        <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3964,11 +3968,11 @@
       <c r="F127">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G127">
-        <v>0.49183432799999999</v>
+      <c r="G127" t="s">
+        <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3990,11 +3994,11 @@
       <c r="F128">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G128">
-        <v>0.49183432799999999</v>
+      <c r="G128" t="s">
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4016,11 +4020,11 @@
       <c r="F129">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G129">
-        <v>0.49183432799999999</v>
+      <c r="G129" t="s">
+        <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4042,11 +4046,11 @@
       <c r="F130">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G130">
-        <v>0.49183432799999999</v>
+      <c r="G130" t="s">
+        <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4068,11 +4072,11 @@
       <c r="F131">
         <v>0.49183432799999999</v>
       </c>
-      <c r="G131">
-        <v>0.49183432799999999</v>
+      <c r="G131" t="s">
+        <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4094,11 +4098,11 @@
       <c r="F132">
         <v>0.49808923700000002</v>
       </c>
-      <c r="G132">
-        <v>0.49808923700000002</v>
+      <c r="G132" t="s">
+        <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4120,11 +4124,11 @@
       <c r="F133">
         <v>0.49808923700000002</v>
       </c>
-      <c r="G133">
-        <v>0.49808923700000002</v>
+      <c r="G133" t="s">
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:8">
